--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5532"/>
+  <dimension ref="A1:B5544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55722,7 +55722,7 @@
         </is>
       </c>
       <c r="B5529" t="n">
-        <v>798452005.51</v>
+        <v>960705252.88</v>
       </c>
     </row>
     <row r="5530">
@@ -55732,7 +55732,7 @@
         </is>
       </c>
       <c r="B5530" t="n">
-        <v>1129217596.57</v>
+        <v>877876335.76</v>
       </c>
     </row>
     <row r="5531">
@@ -55742,7 +55742,7 @@
         </is>
       </c>
       <c r="B5531" t="n">
-        <v>807770522.62</v>
+        <v>812071216.3099999</v>
       </c>
     </row>
     <row r="5532">
@@ -55752,7 +55752,127 @@
         </is>
       </c>
       <c r="B5532" t="n">
-        <v>752516903.73</v>
+        <v>787082146.63</v>
+      </c>
+    </row>
+    <row r="5533">
+      <c r="A5533" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B5533" t="n">
+        <v>748848721.37</v>
+      </c>
+    </row>
+    <row r="5534">
+      <c r="A5534" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B5534" t="n">
+        <v>738819273.64</v>
+      </c>
+    </row>
+    <row r="5535">
+      <c r="A5535" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B5535" t="n">
+        <v>764288655.77</v>
+      </c>
+    </row>
+    <row r="5536">
+      <c r="A5536" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5536" t="n">
+        <v>779536044.8099999</v>
+      </c>
+    </row>
+    <row r="5537">
+      <c r="A5537" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5537" t="n">
+        <v>758416379.33</v>
+      </c>
+    </row>
+    <row r="5538">
+      <c r="A5538" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5538" t="n">
+        <v>705589302.22</v>
+      </c>
+    </row>
+    <row r="5539">
+      <c r="A5539" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5539" t="n">
+        <v>739996225.98</v>
+      </c>
+    </row>
+    <row r="5540">
+      <c r="A5540" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B5540" t="n">
+        <v>761692407.15</v>
+      </c>
+    </row>
+    <row r="5541">
+      <c r="A5541" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B5541" t="n">
+        <v>844396184.16</v>
+      </c>
+    </row>
+    <row r="5542">
+      <c r="A5542" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5542" t="n">
+        <v>866892330.33</v>
+      </c>
+    </row>
+    <row r="5543">
+      <c r="A5543" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5543" t="n">
+        <v>999003361.16</v>
+      </c>
+    </row>
+    <row r="5544">
+      <c r="A5544" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5544" t="n">
+        <v>1114600513.14</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5544"/>
+  <dimension ref="A1:B5545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55872,7 +55872,17 @@
         </is>
       </c>
       <c r="B5544" t="n">
-        <v>1114600513.14</v>
+        <v>928498295.59</v>
+      </c>
+    </row>
+    <row r="5545">
+      <c r="A5545" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5545" t="n">
+        <v>866806363.21</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5545"/>
+  <dimension ref="A1:B5547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55882,7 +55882,27 @@
         </is>
       </c>
       <c r="B5545" t="n">
-        <v>866806363.21</v>
+        <v>861699820.4299999</v>
+      </c>
+    </row>
+    <row r="5546">
+      <c r="A5546" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5546" t="n">
+        <v>747516639.58</v>
+      </c>
+    </row>
+    <row r="5547">
+      <c r="A5547" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5547" t="n">
+        <v>647606356.33</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5547"/>
+  <dimension ref="A1:B5548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55902,7 +55902,17 @@
         </is>
       </c>
       <c r="B5547" t="n">
-        <v>647606356.33</v>
+        <v>786104350.0599999</v>
+      </c>
+    </row>
+    <row r="5548">
+      <c r="A5548" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5548" t="n">
+        <v>819868596.74</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5548"/>
+  <dimension ref="A1:B5549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55912,7 +55912,17 @@
         </is>
       </c>
       <c r="B5548" t="n">
-        <v>819868596.74</v>
+        <v>816824244.49</v>
+      </c>
+    </row>
+    <row r="5549">
+      <c r="A5549" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5549" t="n">
+        <v>843704152.12</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5549"/>
+  <dimension ref="A1:B5550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55922,7 +55922,17 @@
         </is>
       </c>
       <c r="B5549" t="n">
-        <v>843704152.12</v>
+        <v>831989082.7</v>
+      </c>
+    </row>
+    <row r="5550">
+      <c r="A5550" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5550" t="n">
+        <v>845258316.13</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5550"/>
+  <dimension ref="A1:B5551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55932,7 +55932,17 @@
         </is>
       </c>
       <c r="B5550" t="n">
-        <v>845258316.13</v>
+        <v>788817032.62</v>
+      </c>
+    </row>
+    <row r="5551">
+      <c r="A5551" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5551" t="n">
+        <v>751041488.79</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5551"/>
+  <dimension ref="A1:B5552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55945,6 +55945,16 @@
         <v>751041488.79</v>
       </c>
     </row>
+    <row r="5552">
+      <c r="A5552" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5552" t="n">
+        <v>717987887.9400001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5552"/>
+  <dimension ref="A1:B5553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55942,7 +55942,7 @@
         </is>
       </c>
       <c r="B5551" t="n">
-        <v>751041488.79</v>
+        <v>715460844.76</v>
       </c>
     </row>
     <row r="5552">
@@ -55952,7 +55952,17 @@
         </is>
       </c>
       <c r="B5552" t="n">
-        <v>717987887.9400001</v>
+        <v>655729173.24</v>
+      </c>
+    </row>
+    <row r="5553">
+      <c r="A5553" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5553" t="n">
+        <v>603463960.66</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5553"/>
+  <dimension ref="A1:B5554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55962,7 +55962,17 @@
         </is>
       </c>
       <c r="B5553" t="n">
-        <v>603463960.66</v>
+        <v>678747384.4</v>
+      </c>
+    </row>
+    <row r="5554">
+      <c r="A5554" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5554" t="n">
+        <v>698888319.1799999</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5554"/>
+  <dimension ref="A1:B5555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55972,7 +55972,17 @@
         </is>
       </c>
       <c r="B5554" t="n">
-        <v>698888319.1799999</v>
+        <v>788539385.58</v>
+      </c>
+    </row>
+    <row r="5555">
+      <c r="A5555" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5555" t="n">
+        <v>884607386.61</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5555"/>
+  <dimension ref="A1:B5556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55982,7 +55982,17 @@
         </is>
       </c>
       <c r="B5555" t="n">
-        <v>884607386.61</v>
+        <v>1138976279.03</v>
+      </c>
+    </row>
+    <row r="5556">
+      <c r="A5556" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5556" t="n">
+        <v>1445608560.78</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5556"/>
+  <dimension ref="A1:B5558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55992,7 +55992,27 @@
         </is>
       </c>
       <c r="B5556" t="n">
-        <v>1445608560.78</v>
+        <v>1259302423.97</v>
+      </c>
+    </row>
+    <row r="5557">
+      <c r="A5557" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5557" t="n">
+        <v>1375062597.13</v>
+      </c>
+    </row>
+    <row r="5558">
+      <c r="A5558" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5558" t="n">
+        <v>1476352748.66</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5558"/>
+  <dimension ref="A1:B5559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56015,6 +56015,16 @@
         <v>1476352748.66</v>
       </c>
     </row>
+    <row r="5559">
+      <c r="A5559" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5559" t="n">
+        <v>1564981631.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5559"/>
+  <dimension ref="A1:B5560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56012,7 +56012,7 @@
         </is>
       </c>
       <c r="B5558" t="n">
-        <v>1476352748.66</v>
+        <v>1351300403.97</v>
       </c>
     </row>
     <row r="5559">
@@ -56022,7 +56022,17 @@
         </is>
       </c>
       <c r="B5559" t="n">
-        <v>1564981631.24</v>
+        <v>1298053566.88</v>
+      </c>
+    </row>
+    <row r="5560">
+      <c r="A5560" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5560" t="n">
+        <v>1251462584.43</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5560"/>
+  <dimension ref="A1:B5561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56032,7 +56032,17 @@
         </is>
       </c>
       <c r="B5560" t="n">
-        <v>1251462584.43</v>
+        <v>1339986784.01</v>
+      </c>
+    </row>
+    <row r="5561">
+      <c r="A5561" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5561" t="n">
+        <v>1376678349</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5561"/>
+  <dimension ref="A1:B5563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56042,7 +56042,27 @@
         </is>
       </c>
       <c r="B5561" t="n">
-        <v>1376678349</v>
+        <v>1658802653.75</v>
+      </c>
+    </row>
+    <row r="5562">
+      <c r="A5562" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5562" t="n">
+        <v>1687732848.61</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5563" t="n">
+        <v>1713046769.14</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5563"/>
+  <dimension ref="A1:B5564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56062,7 +56062,17 @@
         </is>
       </c>
       <c r="B5563" t="n">
-        <v>1713046769.14</v>
+        <v>1714530372.27</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5564" t="n">
+        <v>1737978205.48</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5564"/>
+  <dimension ref="A1:B5565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56075,6 +56075,16 @@
         <v>1737978205.48</v>
       </c>
     </row>
+    <row r="5565">
+      <c r="A5565" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5565" t="n">
+        <v>1758495059.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5565"/>
+  <dimension ref="A1:B5566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56072,7 +56072,7 @@
         </is>
       </c>
       <c r="B5564" t="n">
-        <v>1737978205.48</v>
+        <v>1562787986.89</v>
       </c>
     </row>
     <row r="5565">
@@ -56082,7 +56082,17 @@
         </is>
       </c>
       <c r="B5565" t="n">
-        <v>1758495059.53</v>
+        <v>1366357622.39</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5566" t="n">
+        <v>1194481053.45</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5566"/>
+  <dimension ref="A1:B5567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56092,7 +56092,17 @@
         </is>
       </c>
       <c r="B5566" t="n">
-        <v>1194481053.45</v>
+        <v>1213987555.02</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5567" t="n">
+        <v>1080663746.07</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5567"/>
+  <dimension ref="A1:B5569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56102,7 +56102,27 @@
         </is>
       </c>
       <c r="B5567" t="n">
-        <v>1080663746.07</v>
+        <v>1095922422.59</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5568" t="n">
+        <v>1192771067.66</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5569" t="n">
+        <v>1277513632.09</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5569"/>
+  <dimension ref="A1:B5570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56122,7 +56122,17 @@
         </is>
       </c>
       <c r="B5569" t="n">
-        <v>1277513632.09</v>
+        <v>1540542544.63</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5570" t="n">
+        <v>1844842586.99</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5570"/>
+  <dimension ref="A1:B5571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56132,7 +56132,17 @@
         </is>
       </c>
       <c r="B5570" t="n">
-        <v>1844842586.99</v>
+        <v>1315201496.22</v>
+      </c>
+    </row>
+    <row r="5571">
+      <c r="A5571" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5571" t="n">
+        <v>1118028078.84</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5571"/>
+  <dimension ref="A1:B5572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56142,7 +56142,17 @@
         </is>
       </c>
       <c r="B5571" t="n">
-        <v>1118028078.84</v>
+        <v>1231072973.98</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5572" t="n">
+        <v>1108948848.61</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5572"/>
+  <dimension ref="A1:B5574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56155,6 +56155,26 @@
         <v>1108948848.61</v>
       </c>
     </row>
+    <row r="5573">
+      <c r="A5573" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5573" t="n">
+        <v>974843372.34</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5574" t="n">
+        <v>857501080.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5574"/>
+  <dimension ref="A1:B5575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56172,7 +56172,17 @@
         </is>
       </c>
       <c r="B5574" t="n">
-        <v>857501080.6</v>
+        <v>890878958.12</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5575" t="n">
+        <v>817410095.6799999</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5575"/>
+  <dimension ref="A1:B5576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56182,7 +56182,17 @@
         </is>
       </c>
       <c r="B5575" t="n">
-        <v>817410095.6799999</v>
+        <v>879300193.53</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5576" t="n">
+        <v>869168774.51</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5576"/>
+  <dimension ref="A1:B5577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56192,7 +56192,17 @@
         </is>
       </c>
       <c r="B5576" t="n">
-        <v>869168774.51</v>
+        <v>988485437.1799999</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5577" t="n">
+        <v>1084022525.37</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5577"/>
+  <dimension ref="A1:B5578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56202,7 +56202,17 @@
         </is>
       </c>
       <c r="B5577" t="n">
-        <v>1084022525.37</v>
+        <v>964966469.25</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5578" t="n">
+        <v>944387372.3099999</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5578"/>
+  <dimension ref="A1:B5579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56212,7 +56212,17 @@
         </is>
       </c>
       <c r="B5578" t="n">
-        <v>944387372.3099999</v>
+        <v>904279608.21</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5579" t="n">
+        <v>851178604.8</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5579"/>
+  <dimension ref="A1:B5581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56222,7 +56222,27 @@
         </is>
       </c>
       <c r="B5579" t="n">
-        <v>851178604.8</v>
+        <v>835770523.87</v>
+      </c>
+    </row>
+    <row r="5580">
+      <c r="A5580" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5580" t="n">
+        <v>831169027.46</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5581" t="n">
+        <v>827142718.09</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5581"/>
+  <dimension ref="A1:B5582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56242,7 +56242,17 @@
         </is>
       </c>
       <c r="B5581" t="n">
-        <v>827142718.09</v>
+        <v>894329134.47</v>
+      </c>
+    </row>
+    <row r="5582">
+      <c r="A5582" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5582" t="n">
+        <v>949594228.11</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5582"/>
+  <dimension ref="A1:B5583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56252,7 +56252,17 @@
         </is>
       </c>
       <c r="B5582" t="n">
-        <v>949594228.11</v>
+        <v>1048507612.16</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5583" t="n">
+        <v>1183413780.14</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5583"/>
+  <dimension ref="A1:B5585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56262,7 +56262,27 @@
         </is>
       </c>
       <c r="B5583" t="n">
-        <v>1183413780.14</v>
+        <v>1102928841.33</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5584" t="n">
+        <v>1165286573.81</v>
+      </c>
+    </row>
+    <row r="5585">
+      <c r="A5585" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5585" t="n">
+        <v>1219849589.73</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5585"/>
+  <dimension ref="A1:B5586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56285,6 +56285,16 @@
         <v>1219849589.73</v>
       </c>
     </row>
+    <row r="5586">
+      <c r="A5586" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5586" t="n">
+        <v>1267592228.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5586"/>
+  <dimension ref="A1:B5587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56282,7 +56282,7 @@
         </is>
       </c>
       <c r="B5585" t="n">
-        <v>1219849589.73</v>
+        <v>1079798487.84</v>
       </c>
     </row>
     <row r="5586">
@@ -56292,7 +56292,17 @@
         </is>
       </c>
       <c r="B5586" t="n">
-        <v>1267592228.66</v>
+        <v>1036648248.34</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5587" t="n">
+        <v>998891788.77</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5587"/>
+  <dimension ref="A1:B5588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56302,7 +56302,17 @@
         </is>
       </c>
       <c r="B5587" t="n">
-        <v>998891788.77</v>
+        <v>931974904.33</v>
+      </c>
+    </row>
+    <row r="5588">
+      <c r="A5588" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5588" t="n">
+        <v>840385728.33</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5588"/>
+  <dimension ref="A1:B5589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56315,6 +56315,16 @@
         <v>840385728.33</v>
       </c>
     </row>
+    <row r="5589">
+      <c r="A5589" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5589" t="n">
+        <v>760245199.3200001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5589"/>
+  <dimension ref="A1:B5590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56312,7 +56312,7 @@
         </is>
       </c>
       <c r="B5588" t="n">
-        <v>840385728.33</v>
+        <v>894077850.6</v>
       </c>
     </row>
     <row r="5589">
@@ -56322,7 +56322,17 @@
         </is>
       </c>
       <c r="B5589" t="n">
-        <v>760245199.3200001</v>
+        <v>748147641.21</v>
+      </c>
+    </row>
+    <row r="5590">
+      <c r="A5590" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5590" t="n">
+        <v>620458707.99</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5590"/>
+  <dimension ref="A1:B5591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56332,7 +56332,17 @@
         </is>
       </c>
       <c r="B5590" t="n">
-        <v>620458707.99</v>
+        <v>630971572.11</v>
+      </c>
+    </row>
+    <row r="5591">
+      <c r="A5591" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5591" t="n">
+        <v>528442511.64</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5591"/>
+  <dimension ref="A1:B5592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56342,7 +56342,17 @@
         </is>
       </c>
       <c r="B5591" t="n">
-        <v>528442511.64</v>
+        <v>544307425.86</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5592" t="n">
+        <v>468476297.89</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5592"/>
+  <dimension ref="A1:B5604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56352,7 +56352,127 @@
         </is>
       </c>
       <c r="B5592" t="n">
-        <v>468476297.89</v>
+        <v>844775236.25</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5593" t="n">
+        <v>793242231.03</v>
+      </c>
+    </row>
+    <row r="5594">
+      <c r="A5594" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5594" t="n">
+        <v>707056823.09</v>
+      </c>
+    </row>
+    <row r="5595">
+      <c r="A5595" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5595" t="n">
+        <v>723853806.36</v>
+      </c>
+    </row>
+    <row r="5596">
+      <c r="A5596" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5596" t="n">
+        <v>703970048.25</v>
+      </c>
+    </row>
+    <row r="5597">
+      <c r="A5597" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5597" t="n">
+        <v>669204149.97</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5598" t="n">
+        <v>560318668.12</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5599" t="n">
+        <v>354119555.78</v>
+      </c>
+    </row>
+    <row r="5600">
+      <c r="A5600" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5600" t="n">
+        <v>322243031.01</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5601" t="n">
+        <v>268190045.32</v>
+      </c>
+    </row>
+    <row r="5602">
+      <c r="A5602" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5602" t="n">
+        <v>193851146.08</v>
+      </c>
+    </row>
+    <row r="5603">
+      <c r="A5603" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5603" t="n">
+        <v>213180462.39</v>
+      </c>
+    </row>
+    <row r="5604">
+      <c r="A5604" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5604" t="n">
+        <v>230093614.16</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5604"/>
+  <dimension ref="A1:B5613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56472,7 +56472,97 @@
         </is>
       </c>
       <c r="B5604" t="n">
-        <v>230093614.16</v>
+        <v>79670847.23999999</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5605" t="n">
+        <v>26380798.75</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5606" t="n">
+        <v>-352139945.81</v>
+      </c>
+    </row>
+    <row r="5607">
+      <c r="A5607" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5607" t="n">
+        <v>47015005.7</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5608" t="n">
+        <v>934550571.1900001</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5609" t="n">
+        <v>801087377.89</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5610" t="n">
+        <v>687453601.35</v>
+      </c>
+    </row>
+    <row r="5611">
+      <c r="A5611" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5611" t="n">
+        <v>750272331.51</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5612" t="n">
+        <v>639105934.48</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5613" t="n">
+        <v>541835337.0599999</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5613"/>
+  <dimension ref="A1:B5616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56562,7 +56562,37 @@
         </is>
       </c>
       <c r="B5613" t="n">
-        <v>541835337.0599999</v>
+        <v>524010406.93</v>
+      </c>
+    </row>
+    <row r="5614">
+      <c r="A5614" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5614" t="n">
+        <v>452069846.03</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5615" t="n">
+        <v>375114710.31</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5616" t="n">
+        <v>307778966.54</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5616"/>
+  <dimension ref="A1:B5618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56592,7 +56592,27 @@
         </is>
       </c>
       <c r="B5616" t="n">
-        <v>307778966.54</v>
+        <v>246999910.59</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5617" t="n">
+        <v>116125141.45</v>
+      </c>
+    </row>
+    <row r="5618">
+      <c r="A5618" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5618" t="n">
+        <v>1609718.45</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5618"/>
+  <dimension ref="A1:B5619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56612,7 +56612,17 @@
         </is>
       </c>
       <c r="B5618" t="n">
-        <v>1609718.45</v>
+        <v>154199475.93</v>
+      </c>
+    </row>
+    <row r="5619">
+      <c r="A5619" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5619" t="n">
+        <v>187514518.62</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5619"/>
+  <dimension ref="A1:B5620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56622,7 +56622,17 @@
         </is>
       </c>
       <c r="B5619" t="n">
-        <v>187514518.62</v>
+        <v>145765284.1</v>
+      </c>
+    </row>
+    <row r="5620">
+      <c r="A5620" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5620" t="n">
+        <v>138385366.23</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5620"/>
+  <dimension ref="A1:B5623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56632,7 +56632,37 @@
         </is>
       </c>
       <c r="B5620" t="n">
-        <v>138385366.23</v>
+        <v>6830992.75</v>
+      </c>
+    </row>
+    <row r="5621">
+      <c r="A5621" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5621" t="n">
+        <v>6317176.93</v>
+      </c>
+    </row>
+    <row r="5622">
+      <c r="A5622" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5622" t="n">
+        <v>-3630268.01</v>
+      </c>
+    </row>
+    <row r="5623">
+      <c r="A5623" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5623" t="n">
+        <v>-12334282.34</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5623"/>
+  <dimension ref="A1:B5624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56662,7 +56662,17 @@
         </is>
       </c>
       <c r="B5623" t="n">
-        <v>-12334282.34</v>
+        <v>-27605619.14</v>
+      </c>
+    </row>
+    <row r="5624">
+      <c r="A5624" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5624" t="n">
+        <v>-48584051.38</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5624"/>
+  <dimension ref="A1:B5629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56672,7 +56672,57 @@
         </is>
       </c>
       <c r="B5624" t="n">
-        <v>-48584051.38</v>
+        <v>-22030302.34</v>
+      </c>
+    </row>
+    <row r="5625">
+      <c r="A5625" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5625" t="n">
+        <v>166808487.84</v>
+      </c>
+    </row>
+    <row r="5626">
+      <c r="A5626" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5626" t="n">
+        <v>116051185.37</v>
+      </c>
+    </row>
+    <row r="5627">
+      <c r="A5627" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5627" t="n">
+        <v>67897509.75</v>
+      </c>
+    </row>
+    <row r="5628">
+      <c r="A5628" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5628" t="n">
+        <v>62603388.99</v>
+      </c>
+    </row>
+    <row r="5629">
+      <c r="A5629" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5629" t="n">
+        <v>57971033.32</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5629"/>
+  <dimension ref="A1:B5632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56722,7 +56722,37 @@
         </is>
       </c>
       <c r="B5629" t="n">
-        <v>57971033.32</v>
+        <v>48483684.58</v>
+      </c>
+    </row>
+    <row r="5630">
+      <c r="A5630" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5630" t="n">
+        <v>-90718587.89</v>
+      </c>
+    </row>
+    <row r="5631">
+      <c r="A5631" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5631" t="n">
+        <v>-112170134.94</v>
+      </c>
+    </row>
+    <row r="5632">
+      <c r="A5632" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5632" t="n">
+        <v>-130940238.61</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5632"/>
+  <dimension ref="A1:B5633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56752,7 +56752,17 @@
         </is>
       </c>
       <c r="B5632" t="n">
-        <v>-130940238.61</v>
+        <v>-153758255.82</v>
+      </c>
+    </row>
+    <row r="5633">
+      <c r="A5633" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5633" t="n">
+        <v>-190147861.59</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5633"/>
+  <dimension ref="A1:B5634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56762,7 +56762,17 @@
         </is>
       </c>
       <c r="B5633" t="n">
-        <v>-190147861.59</v>
+        <v>-151570731.99</v>
+      </c>
+    </row>
+    <row r="5634">
+      <c r="A5634" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5634" t="n">
+        <v>-149656648.66</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5634"/>
+  <dimension ref="A1:B5637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56752,7 +56752,7 @@
         </is>
       </c>
       <c r="B5632" t="n">
-        <v>-153758255.82</v>
+        <v>-170600157.9</v>
       </c>
     </row>
     <row r="5633">
@@ -56762,7 +56762,7 @@
         </is>
       </c>
       <c r="B5633" t="n">
-        <v>-151570731.99</v>
+        <v>-166162280.98</v>
       </c>
     </row>
     <row r="5634">
@@ -56772,7 +56772,37 @@
         </is>
       </c>
       <c r="B5634" t="n">
-        <v>-149656648.66</v>
+        <v>-158881002.48</v>
+      </c>
+    </row>
+    <row r="5635">
+      <c r="A5635" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5635" t="n">
+        <v>-223784187.42</v>
+      </c>
+    </row>
+    <row r="5636">
+      <c r="A5636" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5636" t="n">
+        <v>-183964759.42</v>
+      </c>
+    </row>
+    <row r="5637">
+      <c r="A5637" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5637" t="n">
+        <v>-158166677.52</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5637"/>
+  <dimension ref="A1:B5641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56802,7 +56802,47 @@
         </is>
       </c>
       <c r="B5637" t="n">
-        <v>-158166677.52</v>
+        <v>-149855088.4</v>
+      </c>
+    </row>
+    <row r="5638">
+      <c r="A5638" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5638" t="n">
+        <v>-145880111.26</v>
+      </c>
+    </row>
+    <row r="5639">
+      <c r="A5639" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5639" t="n">
+        <v>-181903929.93</v>
+      </c>
+    </row>
+    <row r="5640">
+      <c r="A5640" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5640" t="n">
+        <v>-148860524.3</v>
+      </c>
+    </row>
+    <row r="5641">
+      <c r="A5641" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5641" t="n">
+        <v>-129390461.56</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_nrpl_usd.xlsx
+++ b/data_cripto/btc_nrpl_usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5641"/>
+  <dimension ref="A1:B5644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56812,7 +56812,7 @@
         </is>
       </c>
       <c r="B5638" t="n">
-        <v>-145880111.26</v>
+        <v>-146269283.91</v>
       </c>
     </row>
     <row r="5639">
@@ -56822,7 +56822,7 @@
         </is>
       </c>
       <c r="B5639" t="n">
-        <v>-181903929.93</v>
+        <v>-182366136.5</v>
       </c>
     </row>
     <row r="5640">
@@ -56832,7 +56832,7 @@
         </is>
       </c>
       <c r="B5640" t="n">
-        <v>-148860524.3</v>
+        <v>-149233328.87</v>
       </c>
     </row>
     <row r="5641">
@@ -56842,7 +56842,37 @@
         </is>
       </c>
       <c r="B5641" t="n">
-        <v>-129390461.56</v>
+        <v>-245406698.81</v>
+      </c>
+    </row>
+    <row r="5642">
+      <c r="A5642" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5642" t="n">
+        <v>-216511145.87</v>
+      </c>
+    </row>
+    <row r="5643">
+      <c r="A5643" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5643" t="n">
+        <v>-217177855.57</v>
+      </c>
+    </row>
+    <row r="5644">
+      <c r="A5644" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5644" t="n">
+        <v>-179705113.13</v>
       </c>
     </row>
   </sheetData>
